--- a/casestudy.xlsx
+++ b/casestudy.xlsx
@@ -8,14 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91949\Pictures\desktop\German inernship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9642B550-FE48-4E23-8815-6AD39CCE9DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75E3B09-7DC5-4F0C-8302-590F611C7B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{FE94E521-13DB-49DA-ACFD-BCBCA3829251}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FE94E521-13DB-49DA-ACFD-BCBCA3829251}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
     <sheet name="Sales" sheetId="2" r:id="rId2"/>
+    <sheet name="Profit Summary" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sales!$A$1:$D$14</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Profit Summary'!$A$2:$A$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Profit Summary'!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Profit Summary'!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Profit Summary'!$B$2:$B$14</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Profit Summary'!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Profit Summary'!$C$2:$C$14</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Profit Summary'!$D$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Profit Summary'!$D$2:$D$14</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Profit Summary'!$E$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Profit Summary'!$E$2:$E$14</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Profit Summary'!$B$2:$B$14</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Profit Summary'!$C$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Profit Summary'!$C$2:$C$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Profit Summary'!$D$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Profit Summary'!$D$2:$D$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Profit Summary'!$E$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Profit Summary'!$E$2:$E$14</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Profit Summary'!$A$2:$A$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
   <si>
     <t>Product Name</t>
   </si>
@@ -45,15 +67,65 @@
   <si>
     <t>Profit per Sale</t>
   </si>
+  <si>
+    <t>Total Profit</t>
+  </si>
+  <si>
+    <t>White Notebook</t>
+  </si>
+  <si>
+    <t>Rule Notebook</t>
+  </si>
+  <si>
+    <t>Blue Pen</t>
+  </si>
+  <si>
+    <t>Black Pen</t>
+  </si>
+  <si>
+    <t>Red Pen</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>Eraser</t>
+  </si>
+  <si>
+    <t>USB-C Charging Cable</t>
+  </si>
+  <si>
+    <t>Wired Headphones</t>
+  </si>
+  <si>
+    <t>Google Phone</t>
+  </si>
+  <si>
+    <t>Macbook Pro Laptop</t>
+  </si>
+  <si>
+    <t>Apple Airpods Headphones</t>
+  </si>
+  <si>
+    <t>LG Dryer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -76,13 +148,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -96,6 +171,1484 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:uLnTx/>
+                <a:uFillTx/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Quantity Sold</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Profit Summary'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quantity Sold</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Profit Summary'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>White Notebook</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rule Notebook</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blue Pen</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Black Pen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Red Pen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pencil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Eraser</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>USB-C Charging Cable</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Wired Headphones</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Google Phone</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Macbook Pro Laptop</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Apple Airpods Headphones</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LG Dryer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Profit Summary'!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C0E-4EF1-ABCA-F448CCA7329A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="803295055"/>
+        <c:axId val="803277775"/>
+      </c:barChart>
+      <c:stockChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Profit Summary'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sale Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Profit Summary'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>White Notebook</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rule Notebook</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blue Pen</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Black Pen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Red Pen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pencil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Eraser</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>USB-C Charging Cable</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Wired Headphones</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Google Phone</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Macbook Pro Laptop</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Apple Airpods Headphones</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LG Dryer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Profit Summary'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>89000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8C0E-4EF1-ABCA-F448CCA7329A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Profit Summary'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cost Price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Profit Summary'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>White Notebook</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rule Notebook</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blue Pen</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Black Pen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Red Pen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pencil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Eraser</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>USB-C Charging Cable</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Wired Headphones</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Google Phone</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Macbook Pro Laptop</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Apple Airpods Headphones</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LG Dryer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Profit Summary'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64390</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2650</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8C0E-4EF1-ABCA-F448CCA7329A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Profit Summary'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Profit Summary'!$A$2:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>White Notebook</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Rule Notebook</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Blue Pen</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Black Pen</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Red Pen</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pencil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Eraser</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>USB-C Charging Cable</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Wired Headphones</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Google Phone</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Macbook Pro Laptop</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Apple Airpods Headphones</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LG Dryer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Profit Summary'!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8C0E-4EF1-ABCA-F448CCA7329A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:axId val="803294575"/>
+        <c:axId val="803270575"/>
+      </c:stockChart>
+      <c:catAx>
+        <c:axId val="803295055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803277775"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="803277775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803295055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="803270575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="803294575"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="803294575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="803270575"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4352DB-22C2-D817-9A0D-A31F367A570A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,17 +1948,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64674A0C-E16D-43DF-A118-6ECAFAE6BEB2}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
     <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -417,6 +1970,149 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>79500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>64390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>2650</v>
       </c>
     </row>
   </sheetData>
@@ -426,16 +2122,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D555042A-1B44-4818-B3D7-0303E7519FD2}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -453,7 +2149,481 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1">
+        <f>(C2-Inventory!C2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1">
+        <f>(C3-Inventory!C3)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <f>(C4-Inventory!C4)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <f>(C5-Inventory!C5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <f>(C6-Inventory!C6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <f>(C7-Inventory!C7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <f>(C8-Inventory!C8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>1500</v>
+      </c>
+      <c r="D9" s="1">
+        <f>(C9-Inventory!C9)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>560</v>
+      </c>
+      <c r="D10" s="1">
+        <f>(C10-Inventory!C10)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>89000</v>
+      </c>
+      <c r="D11" s="1">
+        <f>(C11-Inventory!C11)</f>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>150000</v>
+      </c>
+      <c r="D12" s="1">
+        <f>(C12-Inventory!C12)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>65000</v>
+      </c>
+      <c r="D13" s="1">
+        <f>(C13-Inventory!C13)</f>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="1">
+        <f>(C14-Inventory!C14)</f>
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D14" xr:uid="{D555042A-1B44-4818-B3D7-0303E7519FD2}"/>
+  <hyperlinks>
+    <hyperlink ref="D2" location="Inventory!C2" display="Inventory!C2" xr:uid="{0E725080-3A98-4452-99B3-B37C4062C37F}"/>
+    <hyperlink ref="D3:D14" location="Inventory!C2" display="Inventory!C2" xr:uid="{45563057-62EA-4CC6-B38E-9B5C1170758C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9846561F-8AEE-48D9-892C-C16DA7E5853B}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>60</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <f>(B2*(C2-D2))</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E14" si="0">(B3*(C3-D3))</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>1500</v>
+      </c>
+      <c r="D9">
+        <v>1450</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>560</v>
+      </c>
+      <c r="D10">
+        <v>420</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>89000</v>
+      </c>
+      <c r="D11">
+        <v>79500</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>150000</v>
+      </c>
+      <c r="D12">
+        <v>145000</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>65000</v>
+      </c>
+      <c r="D13">
+        <v>64390</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>18910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>3000</v>
+      </c>
+      <c r="D14">
+        <v>2650</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>8050</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>